--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikmiotla/Documents/Unife/Magistrale/Data_ming_e_Analytics/Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8881CA5D-00A9-FD44-B448-C3EC5A561286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308EC13A-E6D6-1C45-9E82-76B5DA1267FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="5" xr2:uid="{3BE39B9D-EB05-7745-A335-B88CD9C86609}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="6" xr2:uid="{3BE39B9D-EB05-7745-A335-B88CD9C86609}"/>
   </bookViews>
   <sheets>
     <sheet name="PT_IRIS" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="PT_NoVax_CT" sheetId="4" r:id="rId4"/>
     <sheet name="PT_NO_VoVax_A" sheetId="5" r:id="rId5"/>
     <sheet name="PT_NewNoVax" sheetId="6" r:id="rId6"/>
+    <sheet name="PT_NoVax_CT_FIX_" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="97">
   <si>
     <t>RUN</t>
   </si>
@@ -314,6 +315,24 @@
   </si>
   <si>
     <t>0.72</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.13</t>
   </si>
 </sst>
 </file>
@@ -2564,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B53C7CA-00F9-D843-956D-9235FC1B5789}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3020,4 +3039,154 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7999D84-6108-244C-A915-9BA2292D147B}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>